--- a/export/template/profit-loss-template.xlsx
+++ b/export/template/profit-loss-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\var\www\html\Laravel\triptatritunggal\export\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E103E3-D314-4AFB-BFC6-78DA3306F38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D0316C-5501-49B6-8017-27DA6911BE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
   <si>
     <t>Profit Loss Report ID</t>
   </si>
@@ -286,6 +286,30 @@
   </si>
   <si>
     <t>400.02.17</t>
+  </si>
+  <si>
+    <t>4#5#6#7#8</t>
+  </si>
+  <si>
+    <t>"+#+#+#+#-</t>
+  </si>
+  <si>
+    <t>1#9</t>
+  </si>
+  <si>
+    <t>"-#-</t>
+  </si>
+  <si>
+    <t>TOTAL BEBAN</t>
+  </si>
+  <si>
+    <t>14#15#16#17#18#20#21#22#23#24#25#26#27#28#29#39#31#32#33#34</t>
+  </si>
+  <si>
+    <t>"+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+</t>
+  </si>
+  <si>
+    <t>10#35</t>
   </si>
 </sst>
 </file>
@@ -295,7 +319,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -329,8 +353,14 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +370,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -371,6 +407,9 @@
     <xf numFmtId="39" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{8AB8E40D-65E5-4186-8724-3C4BCA4CFBC6}"/>
@@ -678,21 +717,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="G29" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" customWidth="1"/>
     <col min="8" max="8" width="32.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" customWidth="1"/>
+    <col min="9" max="9" width="61" customWidth="1"/>
     <col min="10" max="10" width="25.88671875" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="36.44140625" customWidth="1"/>
@@ -770,11 +809,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>23</v>
@@ -786,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -824,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -833,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -871,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>24</v>
@@ -917,11 +956,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>25</v>
@@ -933,7 +972,7 @@
         <v>20</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -967,11 +1006,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>26</v>
@@ -983,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1017,11 +1056,11 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>27</v>
@@ -1033,7 +1072,7 @@
         <v>22</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1067,11 +1106,11 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>28</v>
@@ -1083,7 +1122,7 @@
         <v>23</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1117,11 +1156,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>8</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>29</v>
@@ -1133,7 +1172,7 @@
         <v>24</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1171,7 +1210,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>30</v>
@@ -1182,8 +1221,14 @@
       <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
       <c r="K10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1221,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>31</v>
@@ -1231,6 +1276,12 @@
       </c>
       <c r="H11" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" t="s">
+        <v>88</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1271,13 +1322,13 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1315,7 +1366,7 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>32</v>
@@ -1365,7 +1416,7 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>33</v>
@@ -1377,7 +1428,7 @@
         <v>28</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1411,11 +1462,11 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <v>14</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>34</v>
@@ -1427,7 +1478,7 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -1461,11 +1512,11 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>15</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>35</v>
@@ -1477,7 +1528,7 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -1511,11 +1562,11 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="8">
         <v>16</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>36</v>
@@ -1527,7 +1578,7 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -1561,11 +1612,11 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="8">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>37</v>
@@ -1577,7 +1628,7 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -1611,11 +1662,11 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="8">
         <v>18</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>38</v>
@@ -1627,7 +1678,7 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -1665,13 +1716,13 @@
         <v>19</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1705,11 +1756,11 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="8">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>39</v>
@@ -1721,7 +1772,7 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -1755,11 +1806,11 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>40</v>
@@ -1771,7 +1822,7 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -1805,11 +1856,11 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>41</v>
@@ -1821,7 +1872,7 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -1855,11 +1906,11 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>42</v>
@@ -1871,7 +1922,7 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -1905,11 +1956,11 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>43</v>
@@ -1921,7 +1972,7 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -1955,11 +2006,11 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="8">
         <v>25</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>44</v>
@@ -1971,7 +2022,7 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>2</v>
@@ -2005,11 +2056,11 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="8">
         <v>26</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>45</v>
@@ -2021,7 +2072,7 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -2055,11 +2106,11 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="8">
         <v>27</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>46</v>
@@ -2071,7 +2122,7 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>2</v>
@@ -2105,11 +2156,11 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="8">
         <v>28</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>47</v>
@@ -2121,7 +2172,7 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -2155,11 +2206,11 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="8">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>48</v>
@@ -2171,7 +2222,7 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -2205,11 +2256,11 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="8">
         <v>30</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>49</v>
@@ -2221,7 +2272,7 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -2255,11 +2306,11 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="8">
         <v>31</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>50</v>
@@ -2271,7 +2322,7 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>2</v>
@@ -2305,11 +2356,11 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="8">
         <v>32</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>51</v>
@@ -2321,7 +2372,7 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>2</v>
@@ -2355,11 +2406,11 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="8">
         <v>33</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>52</v>
@@ -2371,7 +2422,7 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>2</v>
@@ -2405,11 +2456,11 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="8">
         <v>34</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>53</v>
@@ -2421,7 +2472,7 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>2</v>
@@ -2459,13 +2510,22 @@
         <v>35</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
+      <c r="H36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="K36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -2503,7 +2563,7 @@
         <v>36</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>54</v>
@@ -2513,6 +2573,12 @@
       </c>
       <c r="H37" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2553,14 +2619,14 @@
         <v>37</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" s="6"/>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2598,7 +2664,7 @@
         <v>38</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <v>55</v>
@@ -2648,14 +2714,14 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" s="6"/>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2693,7 +2759,7 @@
         <v>40</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41">
         <v>56</v>
@@ -2731,5 +2797,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/export/template/profit-loss-template.xlsx
+++ b/export/template/profit-loss-template.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\var\www\html\Laravel\triptatritunggal\export\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup SAYYID\#TRIPTA\triptatritunggal\export\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D0316C-5501-49B6-8017-27DA6911BE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
+  <calcPr calcId="162913" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
   <si>
     <t>Profit Loss Report ID</t>
   </si>
@@ -294,28 +293,37 @@
     <t>"+#+#+#+#-</t>
   </si>
   <si>
-    <t>1#9</t>
-  </si>
-  <si>
-    <t>"-#-</t>
-  </si>
-  <si>
     <t>TOTAL BEBAN</t>
   </si>
   <si>
-    <t>14#15#16#17#18#20#21#22#23#24#25#26#27#28#29#39#31#32#33#34</t>
-  </si>
-  <si>
-    <t>"+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+</t>
-  </si>
-  <si>
-    <t>10#35</t>
+    <t>4#5#6#7#8#1</t>
+  </si>
+  <si>
+    <t>"+#+#+#+#-#-</t>
+  </si>
+  <si>
+    <t>14#15#16#17#18#21#22#23#24#25#26#27#28#29#30#31#32#33#34</t>
+  </si>
+  <si>
+    <t>"+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+</t>
+  </si>
+  <si>
+    <t>4#5#6#7#8#1#14#15#16#17#18#21#22#23#24#25#26#27#28#29#30#31#32#33#34</t>
+  </si>
+  <si>
+    <t>"+#+#+#+#-#-#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#-</t>
+  </si>
+  <si>
+    <t>4#5#6#7#8#1#14#15#16#17#18#21#22#23#24#25#26#27#28#29#30#31#32#33#34#38</t>
+  </si>
+  <si>
+    <t>"+#+#+#+#-#-#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#-#-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -412,7 +420,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma 2" xfId="1" xr:uid="{8AB8E40D-65E5-4186-8724-3C4BCA4CFBC6}"/>
+    <cellStyle name="Comma 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -714,36 +722,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G29" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" customWidth="1"/>
     <col min="9" max="9" width="61" customWidth="1"/>
-    <col min="10" max="10" width="25.88671875" customWidth="1"/>
+    <col min="10" max="10" width="46.7109375" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="12" width="36.44140625" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" customWidth="1"/>
-    <col min="15" max="15" width="25.77734375" customWidth="1"/>
-    <col min="16" max="16" width="24.6640625" customWidth="1"/>
-    <col min="17" max="17" width="26.88671875" customWidth="1"/>
-    <col min="18" max="18" width="29.44140625" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -849,7 +857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -896,7 +904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -946,7 +954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -996,7 +1004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1096,7 +1104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1146,7 +1154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1196,7 +1204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1252,7 +1260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1278,10 +1286,10 @@
         <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1308,7 +1316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1352,7 +1360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1402,7 +1410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1452,7 +1460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1502,7 +1510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1552,7 +1560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1602,7 +1610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1652,7 +1660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1702,7 +1710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1746,7 +1754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1796,7 +1804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1846,7 +1854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1896,7 +1904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1946,7 +1954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1996,7 +2004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2046,7 +2054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2096,7 +2104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2146,7 +2154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2196,7 +2204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2246,7 +2254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2296,7 +2304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2346,7 +2354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2396,7 +2404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2446,7 +2454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2496,7 +2504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2516,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>90</v>
@@ -2549,7 +2557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2578,10 +2586,10 @@
         <v>92</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -2605,7 +2613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2650,7 +2658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2700,7 +2708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2745,7 +2753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2770,8 +2778,14 @@
       <c r="H41" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="I41" t="s">
+        <v>94</v>
+      </c>
+      <c r="J41" t="s">
+        <v>95</v>
+      </c>
       <c r="K41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L41">
         <v>1</v>

--- a/export/template/profit-loss-template.xlsx
+++ b/export/template/profit-loss-template.xlsx
@@ -287,37 +287,37 @@
     <t>400.02.17</t>
   </si>
   <si>
-    <t>4#5#6#7#8</t>
-  </si>
-  <si>
-    <t>"+#+#+#+#-</t>
-  </si>
-  <si>
     <t>TOTAL BEBAN</t>
   </si>
   <si>
-    <t>4#5#6#7#8#1</t>
-  </si>
-  <si>
-    <t>"+#+#+#+#-#-</t>
-  </si>
-  <si>
     <t>14#15#16#17#18#21#22#23#24#25#26#27#28#29#30#31#32#33#34</t>
   </si>
   <si>
     <t>"+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+</t>
   </si>
   <si>
-    <t>4#5#6#7#8#1#14#15#16#17#18#21#22#23#24#25#26#27#28#29#30#31#32#33#34</t>
-  </si>
-  <si>
-    <t>"+#+#+#+#-#-#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#-</t>
-  </si>
-  <si>
-    <t>4#5#6#7#8#1#14#15#16#17#18#21#22#23#24#25#26#27#28#29#30#31#32#33#34#38</t>
-  </si>
-  <si>
-    <t>"+#+#+#+#-#-#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#-#-</t>
+    <t>1#4#5#6#7#8</t>
+  </si>
+  <si>
+    <t>1#4#5#6#7#8#1</t>
+  </si>
+  <si>
+    <t>"+#+#+#+#+#-</t>
+  </si>
+  <si>
+    <t>"+#+#+#+#+#-#-</t>
+  </si>
+  <si>
+    <t>1#4#5#6#7#8#1#14#15#16#17#18#21#22#23#24#25#26#27#28#29#30#31#32#33#34</t>
+  </si>
+  <si>
+    <t>"+#+#+#+#+#-#-#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#-</t>
+  </si>
+  <si>
+    <t>1#4#5#6#7#8#1#14#15#16#17#18#21#22#23#24#25#26#27#28#29#30#31#32#33#34#38</t>
+  </si>
+  <si>
+    <t>"+#+#+#+#+#-#-#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#+#-#-</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,7 +514,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,11 +1229,11 @@
       <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" t="s">
-        <v>86</v>
+      <c r="I10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -1285,11 +1285,11 @@
       <c r="H11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I11" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I11" s="9" t="s">
         <v>89</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="H36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="K36">
         <v>6</v>
@@ -2778,10 +2778,10 @@
       <c r="H41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="9" t="s">
         <v>95</v>
       </c>
       <c r="K41">
